--- a/data_year/zb/固定资产投资和房地产/全社会固定资产投资.xlsx
+++ b/data_year/zb/固定资产投资和房地产/全社会固定资产投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,527 +468,325 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32918</v>
+        <v>218833.6</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3</v>
+        <v>20.4</v>
       </c>
       <c r="D2" t="n">
-        <v>26221.8</v>
+        <v>189964.168913967</v>
       </c>
       <c r="E2" t="n">
-        <v>10.4913197370639</v>
+        <v>21.0476806028666</v>
       </c>
       <c r="F2" t="n">
-        <v>4984.0529</v>
+        <v>48259.403</v>
       </c>
       <c r="G2" t="n">
-        <v>21.4686098655</v>
+        <v>33.1595009078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37214</v>
+        <v>238782.1</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>20.1</v>
       </c>
       <c r="D3" t="n">
-        <v>30001.24</v>
+        <v>229692.988351437</v>
       </c>
       <c r="E3" t="n">
-        <v>14.4131981786147</v>
+        <v>20.3000624397854</v>
       </c>
       <c r="F3" t="n">
-        <v>6344.1</v>
+        <v>61796.8858</v>
       </c>
       <c r="G3" t="n">
-        <v>27.2867719348</v>
+        <v>28.0515298574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43500</v>
+        <v>281683.8</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>35488.76</v>
+        <v>271843.172227393</v>
       </c>
       <c r="E4" t="n">
-        <v>18.291268349266</v>
+        <v>18.35066197644</v>
       </c>
       <c r="F4" t="n">
-        <v>7790.9</v>
+        <v>71803.78690000001</v>
       </c>
       <c r="G4" t="n">
-        <v>22.8054412761</v>
+        <v>16.1932071026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53841</v>
+        <v>329318.3</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8</v>
+        <v>16.9</v>
       </c>
       <c r="D5" t="n">
-        <v>44389.161215843</v>
+        <v>318771.617351899</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0877685354252</v>
+        <v>17.263058233168</v>
       </c>
       <c r="F5" t="n">
-        <v>10153.8</v>
+        <v>86013.3826</v>
       </c>
       <c r="G5" t="n">
-        <v>30.3289735461</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66235</v>
+        <v>373636.9</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="D6" t="n">
-        <v>55474.9605976495</v>
+        <v>362881.144897799</v>
       </c>
       <c r="E6" t="n">
-        <v>24.974113225302</v>
+        <v>13.837344714792</v>
       </c>
       <c r="F6" t="n">
-        <v>13158.3</v>
+        <v>95035.61440000001</v>
       </c>
       <c r="G6" t="n">
-        <v>29.5899072269</v>
+        <v>10.4898096799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80994</v>
+        <v>405927.7</v>
       </c>
       <c r="C7" t="n">
-        <v>22.3</v>
+        <v>8.6</v>
       </c>
       <c r="D7" t="n">
-        <v>68513.84448122579</v>
+        <v>395517.851732211</v>
       </c>
       <c r="E7" t="n">
-        <v>23.5040885889854</v>
+        <v>8.993773110918649</v>
       </c>
       <c r="F7" t="n">
-        <v>15909.2471</v>
+        <v>95978.8458</v>
       </c>
       <c r="G7" t="n">
-        <v>20.9061960892</v>
+        <v>0.9924701901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97583</v>
+        <v>434363.5</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>82830.4852808904</v>
+        <v>424398.613176177</v>
       </c>
       <c r="E8" t="n">
-        <v>20.8959822763816</v>
+        <v>7.30201211335462</v>
       </c>
       <c r="F8" t="n">
-        <v>19422.9174</v>
+        <v>102580.6128</v>
       </c>
       <c r="G8" t="n">
-        <v>22.0859628391</v>
+        <v>6.8783939787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118323</v>
+        <v>461283.7</v>
       </c>
       <c r="C9" t="n">
-        <v>21.3</v>
+        <v>6.2</v>
       </c>
       <c r="D9" t="n">
-        <v>101211.600505724</v>
+        <v>451729.308346598</v>
       </c>
       <c r="E9" t="n">
-        <v>22.1912441566659</v>
+        <v>6.43986439208166</v>
       </c>
       <c r="F9" t="n">
-        <v>25288.8373</v>
+        <v>109798.5288</v>
       </c>
       <c r="G9" t="n">
-        <v>30.2009483651</v>
+        <v>7.0363207078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144587</v>
+        <v>488499.4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.2</v>
+        <v>5.9</v>
       </c>
       <c r="D10" t="n">
-        <v>124433.611153207</v>
+        <v>478460.447139048</v>
       </c>
       <c r="E10" t="n">
-        <v>22.9440207757308</v>
+        <v>5.9</v>
       </c>
       <c r="F10" t="n">
-        <v>31203.1942</v>
+        <v>120164.7499</v>
       </c>
       <c r="G10" t="n">
-        <v>23.3874284268</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181760</v>
+        <v>513608.3</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7</v>
+        <v>5.1</v>
       </c>
       <c r="D11" t="n">
-        <v>156933.340620711</v>
+        <v>504212.318721995</v>
       </c>
       <c r="E11" t="n">
-        <v>26.1181277038478</v>
+        <v>5.4</v>
       </c>
       <c r="F11" t="n">
-        <v>36241.808</v>
+        <v>132194.2649</v>
       </c>
       <c r="G11" t="n">
-        <v>16.1477027997</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218834</v>
+        <v>527270.3</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4</v>
+        <v>2.7</v>
       </c>
       <c r="D12" t="n">
-        <v>189964.168913967</v>
+        <v>518907</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0476806028666</v>
+        <v>2.9</v>
       </c>
       <c r="F12" t="n">
-        <v>48259.403</v>
+        <v>141442.9455</v>
       </c>
       <c r="G12" t="n">
-        <v>33.1595009078</v>
+        <v>6.99627976069633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238782</v>
+        <v>552884.2</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1</v>
+        <v>4.9</v>
       </c>
       <c r="D13" t="n">
-        <v>229692.988351437</v>
+        <v>544547</v>
       </c>
       <c r="E13" t="n">
-        <v>20.3000624397854</v>
+        <v>4.9</v>
       </c>
       <c r="F13" t="n">
-        <v>61796.8858</v>
+        <v>147602.0767</v>
       </c>
       <c r="G13" t="n">
-        <v>28.0515298574</v>
+        <v>4.35449868371131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>281684</v>
+        <v>579555.5</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>4.9</v>
       </c>
       <c r="D14" t="n">
-        <v>271843.172227393</v>
+        <v>572138</v>
       </c>
       <c r="E14" t="n">
-        <v>18.35066197644</v>
+        <v>5.1</v>
       </c>
       <c r="F14" t="n">
-        <v>71803.78690000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.1932071026</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>329318</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>318771.617351899</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17.263058233168</v>
-      </c>
-      <c r="F15" t="n">
-        <v>86013.3826</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>373637</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>362881.144897799</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.837344714792</v>
-      </c>
-      <c r="F16" t="n">
-        <v>95035.61440000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10.4898096799</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>405928</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>395517.851732211</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.993773110918649</v>
-      </c>
-      <c r="F17" t="n">
-        <v>95978.8458</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9924701901</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>434364</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>424398.613176177</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.30201211335462</v>
-      </c>
-      <c r="F18" t="n">
-        <v>102580.6128</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.8783939787</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>461284</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>451729.308346598</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.43986439208166</v>
-      </c>
-      <c r="F19" t="n">
-        <v>109798.5288</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.0363207078</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>488499</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>478460.447139048</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.91751261176528</v>
-      </c>
-      <c r="F20" t="n">
-        <v>120164.7499</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>513608</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>504212.318721995</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.38223624061929</v>
-      </c>
-      <c r="F21" t="n">
-        <v>132194.2649</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>527270</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>518907</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.91438363014433</v>
-      </c>
-      <c r="F22" t="n">
-        <v>141442.9455</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.99627976069633</v>
-      </c>
+        <v>132895.4113</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
